--- a/instances.xlsx
+++ b/instances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\SNOW-Instance-Waker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B821C5-6871-4346-94DE-A41DCE1DFC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66C92E0-A9BB-40B8-A1E2-1ACCF09EB748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4665" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2910" yWindow="2805" windowWidth="15375" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>user_name</t>
   </si>
   <si>
-    <t>Instance Name</t>
+    <t>InstanceName</t>
   </si>
   <si>
     <t>instanceAccount@mail.com</t>
@@ -381,7 +381,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
